--- a/name.xlsx
+++ b/name.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -22,10 +22,304 @@
     <t>USN</t>
   </si>
   <si>
-    <t>Sub1</t>
-  </si>
-  <si>
-    <t>Sub2</t>
+    <t>1DS15EE001</t>
+  </si>
+  <si>
+    <t>1DS15EE002</t>
+  </si>
+  <si>
+    <t>1DS15EE003</t>
+  </si>
+  <si>
+    <t>1DS15EE004</t>
+  </si>
+  <si>
+    <t>1DS15EE005</t>
+  </si>
+  <si>
+    <t>1DS15EE006</t>
+  </si>
+  <si>
+    <t>1DS15EE007</t>
+  </si>
+  <si>
+    <t>1DS15EE008</t>
+  </si>
+  <si>
+    <t>1DS15EE009</t>
+  </si>
+  <si>
+    <t>1DS15EE010</t>
+  </si>
+  <si>
+    <t>1DS15EE011</t>
+  </si>
+  <si>
+    <t>1DS15EE012</t>
+  </si>
+  <si>
+    <t>1DS15EE013</t>
+  </si>
+  <si>
+    <t>1DS15EE014</t>
+  </si>
+  <si>
+    <t>1DS15EE015</t>
+  </si>
+  <si>
+    <t>1DS15EE016</t>
+  </si>
+  <si>
+    <t>1DS15EE017</t>
+  </si>
+  <si>
+    <t>1DS15EE018</t>
+  </si>
+  <si>
+    <t>1DS15EE019</t>
+  </si>
+  <si>
+    <t>1DS15EE020</t>
+  </si>
+  <si>
+    <t>1DS15EE021</t>
+  </si>
+  <si>
+    <t>1DS15EE022</t>
+  </si>
+  <si>
+    <t>1DS15EE023</t>
+  </si>
+  <si>
+    <t>1DS15EE024</t>
+  </si>
+  <si>
+    <t>1DS15EE025</t>
+  </si>
+  <si>
+    <t>1DS15EE026</t>
+  </si>
+  <si>
+    <t>1DS15EE027</t>
+  </si>
+  <si>
+    <t>1DS15EE028</t>
+  </si>
+  <si>
+    <t>1DS15EE029</t>
+  </si>
+  <si>
+    <t>1DS15EE030</t>
+  </si>
+  <si>
+    <t>1DS15EE031</t>
+  </si>
+  <si>
+    <t>1DS15EE032</t>
+  </si>
+  <si>
+    <t>1DS15EE033</t>
+  </si>
+  <si>
+    <t>1DS15EE034</t>
+  </si>
+  <si>
+    <t>1DS15EE035</t>
+  </si>
+  <si>
+    <t>1DS15EE036</t>
+  </si>
+  <si>
+    <t>1DS15EE037</t>
+  </si>
+  <si>
+    <t>1DS15EE038</t>
+  </si>
+  <si>
+    <t>1DS15EE039</t>
+  </si>
+  <si>
+    <t>1DS15EE040</t>
+  </si>
+  <si>
+    <t>1DS15EE041</t>
+  </si>
+  <si>
+    <t>1DS15EE042</t>
+  </si>
+  <si>
+    <t>1DS15EE043</t>
+  </si>
+  <si>
+    <t>1DS15EE044</t>
+  </si>
+  <si>
+    <t>1DS15EE045</t>
+  </si>
+  <si>
+    <t>1DS15EE046</t>
+  </si>
+  <si>
+    <t>1DS15EE047</t>
+  </si>
+  <si>
+    <t>1DS15EE048</t>
+  </si>
+  <si>
+    <t>1DS15EE049</t>
+  </si>
+  <si>
+    <t>1DS15EE050</t>
+  </si>
+  <si>
+    <t>1DS15EE051</t>
+  </si>
+  <si>
+    <t>1DS15EE052</t>
+  </si>
+  <si>
+    <t>1DS15EE053</t>
+  </si>
+  <si>
+    <t>1DS15EE054</t>
+  </si>
+  <si>
+    <t>1DS15EE055</t>
+  </si>
+  <si>
+    <t>1DS15EE056</t>
+  </si>
+  <si>
+    <t>1DS15EE058</t>
+  </si>
+  <si>
+    <t>1DS15EE059</t>
+  </si>
+  <si>
+    <t>1DS15EE060</t>
+  </si>
+  <si>
+    <t>1DS15EE061</t>
+  </si>
+  <si>
+    <t>1DS15EE062</t>
+  </si>
+  <si>
+    <t>1DS15EE063</t>
+  </si>
+  <si>
+    <t>1DS15EE064</t>
+  </si>
+  <si>
+    <t>1DS15EE065</t>
+  </si>
+  <si>
+    <t>1DS15EE066</t>
+  </si>
+  <si>
+    <t>1DS15EE067</t>
+  </si>
+  <si>
+    <t>1DS15EE068</t>
+  </si>
+  <si>
+    <t>1DS15EE069</t>
+  </si>
+  <si>
+    <t>1DS15EE070</t>
+  </si>
+  <si>
+    <t>1DS15EE071</t>
+  </si>
+  <si>
+    <t>1DS15EE072</t>
+  </si>
+  <si>
+    <t>1DS15EE073</t>
+  </si>
+  <si>
+    <t>1DS15EE074</t>
+  </si>
+  <si>
+    <t>1DS15EE075</t>
+  </si>
+  <si>
+    <t>1DS15EE076</t>
+  </si>
+  <si>
+    <t>1DS15EE077</t>
+  </si>
+  <si>
+    <t>1DS15EE078</t>
+  </si>
+  <si>
+    <t>1DS15EE079</t>
+  </si>
+  <si>
+    <t>1DS15EE080</t>
+  </si>
+  <si>
+    <t>1DS15EE081</t>
+  </si>
+  <si>
+    <t>1DS15EE082</t>
+  </si>
+  <si>
+    <t>1DS15EE083</t>
+  </si>
+  <si>
+    <t>1DS15EE084</t>
+  </si>
+  <si>
+    <t>1DS15EE085</t>
+  </si>
+  <si>
+    <t>1DS15EE086</t>
+  </si>
+  <si>
+    <t>1DS15EE087</t>
+  </si>
+  <si>
+    <t>1DS15EE088</t>
+  </si>
+  <si>
+    <t>1DS15EE089</t>
+  </si>
+  <si>
+    <t>1DS15EE090</t>
+  </si>
+  <si>
+    <t>1DS15EE091</t>
+  </si>
+  <si>
+    <t>1DS15EE092</t>
+  </si>
+  <si>
+    <t>1DS15EE093</t>
+  </si>
+  <si>
+    <t>1DS15EE094</t>
+  </si>
+  <si>
+    <t>1DS15EE095</t>
+  </si>
+  <si>
+    <t>1DS15EE096</t>
+  </si>
+  <si>
+    <t>1DS15EE097</t>
+  </si>
+  <si>
+    <t>1DS15EE098</t>
+  </si>
+  <si>
+    <t>1DS15EE099</t>
+  </si>
+  <si>
+    <t>1DS15EE100</t>
+  </si>
+  <si>
+    <t>1DS15EE101</t>
   </si>
 </sst>
 </file>
@@ -357,24 +651,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>100</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
